--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3516814.733965236</v>
+        <v>3592344.403630041</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -659,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>287.0379065785533</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>12.18755572620807</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -798,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>38.96432462957114</v>
       </c>
       <c r="U4" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>326.7014162146286</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>257.7783060251039</v>
       </c>
     </row>
     <row r="6">
@@ -1060,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>65.81984096499416</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>15.95727827007512</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1184,7 +1186,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>59.68935914213988</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>73.4514204860866</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>76.60886799452511</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>213.6113417665672</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>128.4051296746417</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>127.7178027211456</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>17.18566108282459</v>
+        <v>38.59744043553427</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1825,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>16.3964637729637</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>28.73448241073158</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2138,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>16.13465255107283</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>58.32646557497941</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>113.2092282972031</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>119.1209445033397</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2716,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>71.18858666156088</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>109.6778012403093</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2959,13 +2961,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>9.713041941211483</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>178.9190041201663</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>179.5367198203487</v>
       </c>
       <c r="V34" t="n">
-        <v>18.89873761422001</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3320,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>139.1477730630678</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>98.09286100288297</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,22 +3477,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>30.29082169064374</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>109.5228313448038</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>13.20203877768281</v>
+        <v>115.216550257373</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4028,7 +4030,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>3.347695664762908</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1628.293017861605</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="C2" t="n">
-        <v>1628.293017861605</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D2" t="n">
-        <v>1628.293017861605</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
-        <v>1242.504765263361</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2453.632251513181</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>2453.632251513181</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.358616186807</v>
+        <v>2100.863596243066</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.892857925727</v>
+        <v>2100.863596243066</v>
       </c>
       <c r="Y2" t="n">
-        <v>2014.892857925727</v>
+        <v>2100.863596243066</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>659.3541613938229</v>
       </c>
       <c r="U4" t="n">
-        <v>99.59950625323012</v>
+        <v>659.3541613938229</v>
       </c>
       <c r="V4" t="n">
-        <v>99.59950625323012</v>
+        <v>659.3541613938229</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>659.3541613938229</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>431.3646104958056</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>431.3646104958056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4565,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X5" t="n">
-        <v>2135.941483343059</v>
+        <v>1928.871178043375</v>
       </c>
       <c r="Y5" t="n">
-        <v>2135.941483343059</v>
+        <v>1668.489050745291</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,19 +4646,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>404.2378263186104</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="C7" t="n">
-        <v>404.2378263186104</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D7" t="n">
-        <v>404.2378263186104</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E7" t="n">
-        <v>404.2378263186104</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>632.2273772166277</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>632.2273772166277</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U7" t="n">
-        <v>632.2273772166277</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V7" t="n">
-        <v>632.2273772166277</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="W7" t="n">
-        <v>632.2273772166277</v>
+        <v>468.3051789791533</v>
       </c>
       <c r="X7" t="n">
-        <v>404.2378263186104</v>
+        <v>468.3051789791533</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.2378263186104</v>
+        <v>247.5125998356232</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1721.819089287443</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C8" t="n">
-        <v>1721.819089287443</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
         <v>952.5674858910851</v>
@@ -4802,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2405.650631901128</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2405.650631901128</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2074.587744557557</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1721.819089287443</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1721.819089287443</v>
+        <v>1707.918017222851</v>
       </c>
       <c r="Y8" t="n">
-        <v>1721.819089287443</v>
+        <v>1317.778685247039</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4886,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>289.0740493317991</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C10" t="n">
-        <v>289.0740493317991</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D10" t="n">
-        <v>289.0740493317991</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>289.0740493317991</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>512.3599521189926</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>512.3599521189926</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>512.3599521189926</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X10" t="n">
-        <v>470.7225141620388</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y10" t="n">
-        <v>470.7225141620388</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5035,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5048,7 +5050,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5066,10 +5068,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5084,7 +5086,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>410.874530133163</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>1024.771599890052</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>825.112461128548</v>
+        <v>226.2249729967965</v>
       </c>
       <c r="C13" t="n">
-        <v>656.1762782006411</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150548</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X13" t="n">
-        <v>954.8146123150548</v>
+        <v>447.0175521403266</v>
       </c>
       <c r="Y13" t="n">
-        <v>954.8146123150548</v>
+        <v>226.2249729967965</v>
       </c>
     </row>
     <row r="14">
@@ -5276,19 +5278,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1427.741252113633</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N15" t="n">
-        <v>1757.603879777666</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>2320.788110039405</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>545.4651278373167</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="C16" t="n">
-        <v>376.5289449094098</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="D16" t="n">
-        <v>359.1696912903951</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W16" t="n">
-        <v>955.1031435655738</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X16" t="n">
-        <v>727.1135926675564</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y16" t="n">
-        <v>727.1135926675564</v>
+        <v>465.7659634441654</v>
       </c>
     </row>
     <row r="17">
@@ -5492,34 +5494,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5546,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>3158.47475800178</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>3465.794891281741</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N18" t="n">
-        <v>3795.657518945774</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O18" t="n">
-        <v>4075.197584164471</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>260.6691235773515</v>
+        <v>237.776412546148</v>
       </c>
       <c r="C19" t="n">
-        <v>260.6691235773515</v>
+        <v>237.776412546148</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>237.776412546148</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>237.776412546148</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247858</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>709.4512536188989</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W19" t="n">
-        <v>709.4512536188989</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X19" t="n">
-        <v>481.4617027208816</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.6691235773515</v>
+        <v>237.776412546148</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5743,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5777,25 +5779,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277032</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>901.6749225845919</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977053</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918009</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136706</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>359.1696912903951</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="C22" t="n">
-        <v>359.1696912903951</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D22" t="n">
-        <v>359.1696912903951</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E22" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
         <v>208.7516828383384</v>
@@ -5911,19 +5913,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1371.54353828026</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1371.54353828026</v>
       </c>
       <c r="U22" t="n">
-        <v>1016.295223470052</v>
+        <v>1082.414899493819</v>
       </c>
       <c r="V22" t="n">
-        <v>761.6107352641649</v>
+        <v>827.7304112879317</v>
       </c>
       <c r="W22" t="n">
-        <v>761.6107352641649</v>
+        <v>538.3132412509711</v>
       </c>
       <c r="X22" t="n">
-        <v>761.6107352641649</v>
+        <v>538.3132412509711</v>
       </c>
       <c r="Y22" t="n">
-        <v>540.8181561206347</v>
+        <v>538.3132412509711</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5981,16 +5983,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6020,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6068,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341671</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126628</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N24" t="n">
-        <v>1632.773754790661</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O24" t="n">
-        <v>2302.23751609332</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
         <v>2525.810590821615</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>414.0663679705859</v>
+        <v>4189.868928062645</v>
       </c>
       <c r="C25" t="n">
-        <v>245.130185042679</v>
+        <v>4020.932745134738</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>3870.816105722402</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>3756.463349866642</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473454</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="V25" t="n">
-        <v>755.1831334811258</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="W25" t="n">
-        <v>634.8589471141159</v>
+        <v>4371.517392892884</v>
       </c>
       <c r="X25" t="n">
-        <v>634.8589471141159</v>
+        <v>4371.517392892884</v>
       </c>
       <c r="Y25" t="n">
-        <v>414.0663679705859</v>
+        <v>4371.517392892884</v>
       </c>
     </row>
     <row r="26">
@@ -6203,40 +6205,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>2649.889045452863</v>
       </c>
       <c r="L27" t="n">
-        <v>550.2226492899335</v>
+        <v>2896.654173359327</v>
       </c>
       <c r="M27" t="n">
-        <v>857.5427825698952</v>
+        <v>3558.742788710867</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>3888.6054163749</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>4558.069177677559</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>4763.091658459769</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3867.970784729898</v>
+        <v>337.3000764349712</v>
       </c>
       <c r="C28" t="n">
-        <v>3867.970784729898</v>
+        <v>337.3000764349712</v>
       </c>
       <c r="D28" t="n">
-        <v>3717.854145317562</v>
+        <v>337.3000764349712</v>
       </c>
       <c r="E28" t="n">
-        <v>3569.941051735169</v>
+        <v>337.3000764349712</v>
       </c>
       <c r="F28" t="n">
-        <v>3569.941051735169</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>3569.941051735169</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014292</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>4606.170084808406</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W28" t="n">
-        <v>4316.752914771445</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X28" t="n">
-        <v>4088.763363873428</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="Y28" t="n">
-        <v>3867.970784729898</v>
+        <v>337.3000764349712</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6464,16 +6466,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6506,7 +6508,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6551,10 @@
         <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977054</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N30" t="n">
-        <v>1999.905696641086</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
         <v>2331.418122136705</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>573.5346686508863</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C31" t="n">
-        <v>573.5346686508863</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D31" t="n">
-        <v>573.5346686508863</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E31" t="n">
-        <v>425.6215750684931</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U31" t="n">
-        <v>1009.867621687013</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V31" t="n">
-        <v>755.183133481126</v>
+        <v>983.329485121187</v>
       </c>
       <c r="W31" t="n">
-        <v>755.183133481126</v>
+        <v>693.9123150842264</v>
       </c>
       <c r="X31" t="n">
-        <v>755.183133481126</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y31" t="n">
-        <v>755.183133481126</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6725,25 +6727,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6786,7 +6788,7 @@
         <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N33" t="n">
         <v>1661.954360834046</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3926.12130983931</v>
+        <v>4058.21949835487</v>
       </c>
       <c r="C34" t="n">
-        <v>3757.185126911404</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="D34" t="n">
-        <v>3607.068487499068</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I34" t="n">
         <v>3459.155393916675</v>
@@ -6880,28 +6882,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803799</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U34" t="n">
-        <v>4637.069157803799</v>
+        <v>4568.429247535361</v>
       </c>
       <c r="V34" t="n">
-        <v>4617.979523850041</v>
+        <v>4568.429247535361</v>
       </c>
       <c r="W34" t="n">
-        <v>4328.56235381308</v>
+        <v>4279.012077498401</v>
       </c>
       <c r="X34" t="n">
-        <v>4328.56235381308</v>
+        <v>4279.012077498401</v>
       </c>
       <c r="Y34" t="n">
-        <v>4107.76977466955</v>
+        <v>4058.21949835487</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6929,25 +6931,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6968,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7019,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1016.813592216476</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N36" t="n">
-        <v>1346.676219880508</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4006.046332499342</v>
+        <v>515.3536117832385</v>
       </c>
       <c r="C37" t="n">
-        <v>4006.046332499342</v>
+        <v>346.4174288553317</v>
       </c>
       <c r="D37" t="n">
-        <v>3865.493026375031</v>
+        <v>196.3007894429959</v>
       </c>
       <c r="E37" t="n">
-        <v>3717.579932792637</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>4549.85945949167</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U37" t="n">
-        <v>4260.730820705228</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V37" t="n">
-        <v>4006.046332499342</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W37" t="n">
-        <v>4006.046332499342</v>
+        <v>964.135741824786</v>
       </c>
       <c r="X37" t="n">
-        <v>4006.046332499342</v>
+        <v>736.1461909267687</v>
       </c>
       <c r="Y37" t="n">
-        <v>4006.046332499342</v>
+        <v>515.3536117832385</v>
       </c>
     </row>
     <row r="38">
@@ -7257,19 +7259,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864554</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1538.857683528586</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2208.321444831246</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>822.6075462588844</v>
+        <v>426.1449830812445</v>
       </c>
       <c r="C40" t="n">
-        <v>653.6713633309776</v>
+        <v>426.1449830812445</v>
       </c>
       <c r="D40" t="n">
-        <v>503.5547239186418</v>
+        <v>426.1449830812445</v>
       </c>
       <c r="E40" t="n">
-        <v>355.6416303362487</v>
+        <v>278.2318894988514</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>278.2318894988514</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>278.2318894988514</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>127.8138810467947</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7357,25 +7359,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U40" t="n">
-        <v>1187.92115703528</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V40" t="n">
-        <v>933.2366688293934</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W40" t="n">
-        <v>822.6075462588844</v>
+        <v>874.927113122792</v>
       </c>
       <c r="X40" t="n">
-        <v>822.6075462588844</v>
+        <v>646.9375622247746</v>
       </c>
       <c r="Y40" t="n">
-        <v>822.6075462588844</v>
+        <v>426.1449830812445</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,13 +7411,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7442,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.043068977054</v>
+        <v>3079.144181652284</v>
       </c>
       <c r="N42" t="n">
-        <v>1999.905696641086</v>
+        <v>3765.904468744134</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>4045.444533962831</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>260.6691235773517</v>
+        <v>213.5974452556121</v>
       </c>
       <c r="C43" t="n">
-        <v>260.6691235773517</v>
+        <v>213.5974452556121</v>
       </c>
       <c r="D43" t="n">
-        <v>110.552484165016</v>
+        <v>213.5974452556121</v>
       </c>
       <c r="E43" t="n">
-        <v>110.552484165016</v>
+        <v>213.5974452556121</v>
       </c>
       <c r="F43" t="n">
-        <v>110.552484165016</v>
+        <v>213.5974452556121</v>
       </c>
       <c r="G43" t="n">
-        <v>110.552484165016</v>
+        <v>213.5974452556121</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7594,25 +7596,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>964.135741824786</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V43" t="n">
-        <v>709.4512536188992</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W43" t="n">
-        <v>709.4512536188992</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="X43" t="n">
-        <v>481.4617027208818</v>
+        <v>616.038489229382</v>
       </c>
       <c r="Y43" t="n">
-        <v>260.6691235773517</v>
+        <v>395.2459100858518</v>
       </c>
     </row>
     <row r="44">
@@ -7625,34 +7627,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7679,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>1163.495507227045</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1722.015429253975</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>100.5986022327736</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>100.5986022327736</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>100.5986022327736</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7837,19 +7839,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>1020.446367141521</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>731.0291971045608</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>503.0396462065435</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>282.2470670630133</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360584</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>124.340078086323</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>234.4116509503168</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8939,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="O15" t="n">
-        <v>286.5092576192343</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>91.23759968302096</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776745</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9419,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9480,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>52.49733361305363</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9656,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9720,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>41.75994765618367</v>
       </c>
       <c r="P24" t="n">
-        <v>18.7379736829144</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9893,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>358.3520020925037</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10197,13 +10199,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>52.49733361305249</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,10 +10436,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>124.3400780863228</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>124.3400780863226</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10604,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10665,25 +10667,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>176.7176547498451</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>43.65987261462459</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,22 +10907,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>360.5026862907256</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>124.3400780863231</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11142,22 +11144,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>360.5026862907243</v>
       </c>
       <c r="O42" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>253.7371603504736</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>297.2466435761031</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.42685050729563</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>39.52901837748226</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>131.4298119353878</v>
+        <v>110.0180325826781</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23713,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23893,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>132.2190092452487</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>116.6865656121997</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24133,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.7861574325304</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>227.9108868235979</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>33.22473434936605</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24418,19 +24420,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>167.4020538332513</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,19 +24606,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>74.23246136137037</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>39.23602712722688</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,19 +24651,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24847,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>135.7080060817198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>73.21863920366167</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>106.7006325782286</v>
       </c>
       <c r="V34" t="n">
-        <v>233.238905709608</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>9.467699955144582</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>48.3411016436862</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25330,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>80.12842377362824</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>177.0001669917872</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,7 +25803,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>135.7117895898533</v>
+        <v>33.6972781101631</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>143.0862669818063</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>691429.7925064223</v>
+        <v>691429.7925064224</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>691429.7925064224</v>
+        <v>691429.7925064223</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>691429.7925064223</v>
+        <v>691429.7925064224</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.85454099</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="F2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="G2" t="n">
+        <v>684300.8545409907</v>
+      </c>
+      <c r="H2" t="n">
         <v>684300.8545409904</v>
       </c>
-      <c r="G2" t="n">
-        <v>684300.8545409903</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>684300.8545409902</v>
-      </c>
-      <c r="I2" t="n">
-        <v>684300.8545409904</v>
       </c>
       <c r="J2" t="n">
         <v>684300.8545409904</v>
       </c>
       <c r="K2" t="n">
-        <v>684300.8545409909</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="L2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409908</v>
       </c>
       <c r="M2" t="n">
         <v>684300.8545409903</v>
       </c>
       <c r="N2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="O2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="P2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409901</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>147917.0487159209</v>
+      </c>
+      <c r="C4" t="n">
         <v>147917.0487159208</v>
-      </c>
-      <c r="C4" t="n">
-        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007539</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007483</v>
@@ -26445,19 +26447,19 @@
         <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007482</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="O4" t="n">
+        <v>7916.731656007482</v>
+      </c>
+      <c r="P4" t="n">
         <v>7916.731656007484</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.731656007483</v>
       </c>
     </row>
     <row r="5">
@@ -26479,16 +26481,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102332.4573626267</v>
+        <v>-102332.457362627</v>
       </c>
       <c r="C6" t="n">
-        <v>487635.4218519179</v>
+        <v>487635.4218519175</v>
       </c>
       <c r="D6" t="n">
-        <v>487635.4218519174</v>
+        <v>487635.4218519176</v>
       </c>
       <c r="E6" t="n">
-        <v>59236.76045936975</v>
+        <v>59236.76045937005</v>
       </c>
       <c r="F6" t="n">
+        <v>584396.796936266</v>
+      </c>
+      <c r="G6" t="n">
+        <v>584396.7969362666</v>
+      </c>
+      <c r="H6" t="n">
         <v>584396.7969362664</v>
       </c>
-      <c r="G6" t="n">
-        <v>584396.7969362662</v>
-      </c>
-      <c r="H6" t="n">
-        <v>584396.796936266</v>
-      </c>
       <c r="I6" t="n">
+        <v>584396.7969362661</v>
+      </c>
+      <c r="J6" t="n">
+        <v>407973.5777436733</v>
+      </c>
+      <c r="K6" t="n">
         <v>584396.7969362664</v>
       </c>
-      <c r="J6" t="n">
-        <v>407973.5777436732</v>
-      </c>
-      <c r="K6" t="n">
-        <v>584396.7969362668</v>
-      </c>
       <c r="L6" t="n">
-        <v>584396.7969362661</v>
+        <v>584396.7969362667</v>
       </c>
       <c r="M6" t="n">
         <v>449595.7817024291</v>
       </c>
       <c r="N6" t="n">
-        <v>584396.7969362665</v>
+        <v>584396.796936266</v>
       </c>
       <c r="O6" t="n">
-        <v>584396.7969362662</v>
+        <v>584396.7969362664</v>
       </c>
       <c r="P6" t="n">
-        <v>584396.7969362662</v>
+        <v>584396.796936266</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,16 +26749,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>119.8381391631581</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>239.0366117820812</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>186.0707808285131</v>
       </c>
       <c r="U4" t="n">
-        <v>277.0062774114811</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>43.0296844638404</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>128.4596326309497</v>
       </c>
     </row>
     <row r="6">
@@ -27780,16 +27782,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>146.3256979850248</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>270.5657200665159</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>156.7589612155179</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>296.2796801923824</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,13 +28022,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>68.81218002840613</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>11.42376369151711</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32640,10 +32642,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32877,10 +32879,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35252,7 +35254,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>274.9155166742622</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>544.836028000783</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,19 +35649,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>639.309310412009</v>
       </c>
       <c r="O15" t="n">
-        <v>568.8729598603425</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>373.6013019241291</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>385.6919070110663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>588.4784392551043</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>324.1236498972918</v>
       </c>
       <c r="P24" t="n">
-        <v>225.831388614439</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36613,7 +36615,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R26" t="n">
         <v>59.8253897034981</v>
@@ -36671,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>265.0957540022528</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>668.77637914297</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>676.2260215178377</v>
@@ -36695,7 +36697,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>334.8610358541607</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315247</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>457.5346514843356</v>
       </c>
       <c r="O33" t="n">
         <v>676.2260215178377</v>
@@ -37324,7 +37326,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R35" t="n">
         <v>59.8253897034981</v>
@@ -37385,25 +37387,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>487.1420318003114</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>250.7532875461493</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>670.9270633411919</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37862,22 +37864,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>693.6972596887373</v>
       </c>
       <c r="O42" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>564.1615374009399</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38111,7 +38113,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>504.3400585076278</v>
       </c>
       <c r="Q45" t="n">
         <v>88.01303278507413</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3592344.403630041</v>
+        <v>3585327.38873833</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>99.49294414105628</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>12.18755572620807</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>38.96432462957114</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>145.4249611444373</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>326.3606870035035</v>
       </c>
       <c r="Y5" t="n">
-        <v>257.7783060251039</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>30.54110646053108</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>15.95727827007512</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>73.4514204860866</v>
+        <v>96.3616331761031</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>213.6113417665672</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113181</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385028</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>127.7178027211456</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>104.6354350586187</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>38.59744043553427</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>28.73448241073158</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>280.9016804540294</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>16.13465255107283</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>113.2092282972031</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>71.18858666156088</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>178.9190041201663</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>179.5367198203487</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>98.09286100288297</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>222.0263362645364</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>30.29082169064374</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>206.806426921486</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3796,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>115.216550257373</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>256.6289271138774</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1714.263756178945</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="C2" t="n">
-        <v>1345.301239238533</v>
+        <v>554.1525618548221</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>554.1525618548221</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>168.3643092565779</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2453.632251513181</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2453.632251513181</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2100.863596243066</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2100.863596243066</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>2100.863596243066</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4424,10 +4424,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249.7161456655658</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="C4" t="n">
-        <v>249.7161456655658</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>659.3541613938229</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>659.3541613938229</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>659.3541613938229</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>659.3541613938229</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>431.3646104958056</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>431.3646104958056</v>
+        <v>551.8181649141599</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1668.489050745291</v>
+        <v>1359.546482223454</v>
       </c>
       <c r="C5" t="n">
-        <v>1299.526533804879</v>
+        <v>990.5839652830421</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1928.871178043375</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1668.489050745291</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,19 +4646,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247.5125998356232</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>247.5125998356232</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>247.5125998356232</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>468.3051789791533</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>468.3051789791533</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>247.5125998356232</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1317.778685247039</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1317.778685247039</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4816,7 +4816,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4840,16 +4840,16 @@
         <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1707.918017222851</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1317.778685247039</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4886,13 +4886,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4992,22 +4992,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>512.3599521189926</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>512.3599521189926</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>512.3599521189926</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>222.942782082032</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>222.942782082032</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5020,37 +5020,37 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155891</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028579</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>226.2249729967965</v>
+        <v>990.7828679390639</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W13" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X13" t="n">
-        <v>447.0175521403266</v>
+        <v>1393.223911912834</v>
       </c>
       <c r="Y13" t="n">
-        <v>226.2249729967965</v>
+        <v>1172.431332769303</v>
       </c>
     </row>
     <row r="14">
@@ -5284,13 +5284,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5360,19 +5360,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>284.1174986139257</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>284.1174986139257</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>755.183133481126</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>465.7659634441654</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>465.7659634441654</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>465.7659634441654</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>237.776412546148</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C19" t="n">
-        <v>237.776412546148</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D19" t="n">
-        <v>237.776412546148</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E19" t="n">
-        <v>237.776412546148</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>755.183133481126</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>465.7659634441654</v>
+        <v>1215.177199392216</v>
       </c>
       <c r="X19" t="n">
-        <v>237.776412546148</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="Y19" t="n">
-        <v>237.776412546148</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5743,40 +5743,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,10 +5785,10 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>261.8048459311029</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>410.8745301331628</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.546326320615</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1371.54353828026</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1371.54353828026</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1082.414899493819</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>827.7304112879317</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>538.3132412509711</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>538.3132412509711</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>538.3132412509711</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,28 +6007,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4189.868928062645</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>4020.932745134738</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>3870.816105722402</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>3756.463349866642</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4660.934562929845</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>4660.934562929845</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>4660.934562929845</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>4371.517392892884</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>4371.517392892884</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>4371.517392892884</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6250,7 +6250,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2649.889045452863</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>2896.654173359327</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>3558.742788710867</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>3888.6054163749</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>4558.069177677559</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>4763.091658459769</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>337.3000764349712</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>337.3000764349712</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>337.3000764349712</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>337.3000764349712</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6420,16 +6420,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>786.0822064765186</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>558.0926555785013</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>337.3000764349712</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614725</v>
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1164.055751909234</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>983.329485121187</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>693.9123150842264</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>465.9227641862091</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6727,10 +6727,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4058.21949835487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4749.779469576118</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>4749.779469576118</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U34" t="n">
-        <v>4568.429247535361</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V34" t="n">
-        <v>4568.429247535361</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W34" t="n">
-        <v>4279.012077498401</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X34" t="n">
-        <v>4279.012077498401</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>4058.21949835487</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,10 +6916,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,7 +6931,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6973,13 +6973,13 @@
         <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>515.3536117832385</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C37" t="n">
-        <v>346.4174288553317</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D37" t="n">
-        <v>196.3007894429959</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>964.135741824786</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U37" t="n">
-        <v>964.135741824786</v>
+        <v>963.6521305054455</v>
       </c>
       <c r="V37" t="n">
-        <v>964.135741824786</v>
+        <v>963.6521305054455</v>
       </c>
       <c r="W37" t="n">
-        <v>964.135741824786</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="X37" t="n">
-        <v>736.1461909267687</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="Y37" t="n">
-        <v>515.3536117832385</v>
+        <v>674.2349604684848</v>
       </c>
     </row>
     <row r="38">
@@ -7253,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>426.1449830812445</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>426.1449830812445</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>426.1449830812445</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>278.2318894988514</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>278.2318894988514</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>278.2318894988514</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>127.8138810467947</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>874.927113122792</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V40" t="n">
-        <v>874.927113122792</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>874.927113122792</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>646.9375622247746</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>426.1449830812445</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,13 +7411,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3079.144181652284</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>3765.904468744134</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4045.444533962831</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>213.5974452556121</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C43" t="n">
-        <v>213.5974452556121</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D43" t="n">
-        <v>213.5974452556121</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E43" t="n">
-        <v>213.5974452556121</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>213.5974452556121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>213.5974452556121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1098.712528333286</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>844.0280401273993</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>844.0280401273993</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X43" t="n">
-        <v>616.038489229382</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y43" t="n">
-        <v>395.2459100858518</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="44">
@@ -7627,34 +7627,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7675,22 +7675,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7730,22 +7730,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1427.741252113634</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1757.603879777666</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2037.143944996363</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>234.4116509503168</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,22 +9008,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>306.1147370139961</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711655</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>91.23759968302096</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>124.3400780863227</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>306.1147370139961</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>41.75994765618367</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,28 +9956,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>358.3520020925037</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>124.3400780863228</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>124.3400780863226</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10606,10 +10606,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>43.65987261462459</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>360.5026862907256</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,13 +11150,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>360.5026862907243</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>297.2466435761031</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>39.52901837748226</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>121.0742203304185</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>110.0180325826781</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>116.6865656121997</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>5.621317882561641</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>181.7861574325304</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>33.22473434936605</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>74.23246136137037</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>73.21863920366167</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>106.7006325782286</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>48.3411016436862</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>64.21101613404099</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>80.12842377362824</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>33.6972781101631</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>50.96659166315999</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>691429.7925064223</v>
+        <v>691429.7925064224</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>691429.7925064223</v>
+        <v>691429.7925064224</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>691429.7925064223</v>
+        <v>691429.7925064224</v>
       </c>
     </row>
     <row r="10">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="F2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="G2" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="H2" t="n">
         <v>684300.8545409904</v>
       </c>
       <c r="I2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.85454099</v>
       </c>
       <c r="J2" t="n">
         <v>684300.8545409904</v>
       </c>
       <c r="K2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409897</v>
       </c>
       <c r="L2" t="n">
-        <v>684300.8545409908</v>
+        <v>684300.8545409905</v>
       </c>
       <c r="M2" t="n">
         <v>684300.8545409903</v>
       </c>
       <c r="N2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="O2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="P2" t="n">
         <v>684300.8545409904</v>
-      </c>
-      <c r="P2" t="n">
-        <v>684300.8545409901</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007442</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007443</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="K4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="K4" t="n">
-        <v>7916.731656007484</v>
-      </c>
       <c r="L4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26524,46 +26524,46 @@
         <v>-102332.457362627</v>
       </c>
       <c r="C6" t="n">
-        <v>487635.4218519175</v>
+        <v>487635.4218519178</v>
       </c>
       <c r="D6" t="n">
-        <v>487635.4218519176</v>
+        <v>487635.4218519178</v>
       </c>
       <c r="E6" t="n">
-        <v>59236.76045937005</v>
+        <v>58262.16919964799</v>
       </c>
       <c r="F6" t="n">
-        <v>584396.796936266</v>
+        <v>583422.2056765447</v>
       </c>
       <c r="G6" t="n">
-        <v>584396.7969362666</v>
+        <v>583422.2056765447</v>
       </c>
       <c r="H6" t="n">
-        <v>584396.7969362664</v>
+        <v>583422.2056765447</v>
       </c>
       <c r="I6" t="n">
-        <v>584396.7969362661</v>
+        <v>583422.2056765442</v>
       </c>
       <c r="J6" t="n">
-        <v>407973.5777436733</v>
+        <v>406998.9864839517</v>
       </c>
       <c r="K6" t="n">
-        <v>584396.7969362664</v>
+        <v>583422.205676544</v>
       </c>
       <c r="L6" t="n">
-        <v>584396.7969362667</v>
+        <v>583422.2056765448</v>
       </c>
       <c r="M6" t="n">
-        <v>449595.7817024291</v>
+        <v>448621.1904427074</v>
       </c>
       <c r="N6" t="n">
-        <v>584396.796936266</v>
+        <v>583422.2056765446</v>
       </c>
       <c r="O6" t="n">
-        <v>584396.7969362664</v>
+        <v>583422.2056765446</v>
       </c>
       <c r="P6" t="n">
-        <v>584396.796936266</v>
+        <v>583422.2056765447</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>307.3831016006552</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>239.0366117820812</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>186.0707808285131</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>73.15969220765749</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>43.37041367496556</v>
       </c>
       <c r="Y5" t="n">
-        <v>128.4596326309497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>270.5657200665159</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>296.2796801923824</v>
+        <v>273.3694675023659</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>11.42376369151711</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-9.003997547551987e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-9.003997547551988e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35254,7 +35254,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>544.836028000783</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>639.309310412009</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
         <v>88.01303278507413</v>
@@ -35886,7 +35886,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35974,16 +35974,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>373.6013019241291</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
         <v>59.8253897034981</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>166.2502570412294</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36214,10 +36214,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>588.4784392551043</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>88.01303278507413</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>324.1236498972918</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36615,10 +36615,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>668.77637914297</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>457.5346514843356</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37326,10 +37326,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>250.7532875461493</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>670.9270633411919</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37870,13 +37870,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>693.6972596887373</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38113,10 +38113,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>504.3400585076278</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3585327.38873833</v>
+        <v>3590266.651587362</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -840,7 +840,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>145.4249611444373</v>
+        <v>145.4249611444376</v>
       </c>
     </row>
     <row r="5">
@@ -901,13 +901,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>165.3258942948269</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>326.3606870035035</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>223.1498336210771</v>
+        <v>99.90187484148926</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113181</v>
+        <v>305.2872491113189</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385028</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>104.6354350586187</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1660,10 +1660,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>26.9744467395492</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>160.8722505808165</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.9016804540294</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417128</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,7 +2772,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>169.7438101404423</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002176</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>33.35146980185879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>222.0263362645364</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>206.806426921486</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3793,10 +3793,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>194.9576419790511</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,16 +3957,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>256.6289271138774</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>81.9035583574471</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4391,10 +4391,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>551.8181649141599</v>
+        <v>551.8181649141598</v>
       </c>
       <c r="C4" t="n">
-        <v>551.8181649141599</v>
+        <v>551.8181649141598</v>
       </c>
       <c r="D4" t="n">
-        <v>551.8181649141599</v>
+        <v>551.8181649141598</v>
       </c>
       <c r="E4" t="n">
-        <v>551.8181649141599</v>
+        <v>551.8181649141598</v>
       </c>
       <c r="F4" t="n">
-        <v>404.9282174162495</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y4" t="n">
-        <v>551.8181649141599</v>
+        <v>551.8181649141598</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1359.546482223454</v>
+        <v>764.2362323993566</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830421</v>
+        <v>395.2737154589449</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
         <v>221.3323618866839</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X5" t="n">
-        <v>2136.285654263387</v>
+        <v>1540.97540443929</v>
       </c>
       <c r="Y5" t="n">
-        <v>1746.146322287575</v>
+        <v>1150.836072463478</v>
       </c>
     </row>
     <row r="6">
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4874,10 +4874,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4907,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4968,43 +4968,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036445</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155891</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805481</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822461</v>
@@ -5041,13 +5041,13 @@
         <v>97.21709146028579</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5071,7 +5071,7 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465302</v>
@@ -5083,10 +5083,10 @@
         <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5123,13 +5123,13 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>990.7828679390639</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557903</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557903</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X13" t="n">
-        <v>1393.223911912834</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>1172.431332769303</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5275,37 +5275,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5354,16 +5354,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M15" t="n">
         <v>1247.466478653857</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5494,22 +5494,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
@@ -5518,25 +5518,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5548,13 +5548,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5594,22 +5594,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>584.7466045204288</v>
+        <v>579.068505649155</v>
       </c>
       <c r="C19" t="n">
-        <v>415.8104215925219</v>
+        <v>410.1323227212481</v>
       </c>
       <c r="D19" t="n">
-        <v>415.8104215925219</v>
+        <v>410.1323227212481</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>410.1323227212481</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>410.1323227212481</v>
       </c>
       <c r="G19" t="n">
         <v>247.6350999123426</v>
@@ -5673,7 +5673,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5682,7 +5682,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W19" t="n">
-        <v>1215.177199392216</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X19" t="n">
-        <v>987.1876484941987</v>
+        <v>981.5095496229249</v>
       </c>
       <c r="Y19" t="n">
-        <v>766.3950693506686</v>
+        <v>760.7169704793947</v>
       </c>
     </row>
     <row r="20">
@@ -5746,28 +5746,28 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
@@ -5831,10 +5831,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>261.8048459311029</v>
+        <v>261.8048459311028</v>
       </c>
       <c r="K21" t="n">
-        <v>410.8745301331628</v>
+        <v>410.8745301331627</v>
       </c>
       <c r="L21" t="n">
         <v>1024.771599890051</v>
@@ -5910,7 +5910,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
@@ -5919,7 +5919,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,28 +5928,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028587</v>
@@ -5980,10 +5980,10 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
@@ -5992,10 +5992,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6007,10 +6007,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6068,22 +6068,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6147,7 +6147,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
@@ -6156,7 +6156,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,31 +6165,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028587</v>
@@ -6205,22 +6205,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
@@ -6241,37 +6241,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6384,7 +6384,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6393,7 +6393,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,22 +6402,22 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
         <v>614.6238123952638</v>
@@ -6457,34 +6457,34 @@
         <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6542,22 +6542,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6621,7 +6621,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
@@ -6630,7 +6630,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,13 +6639,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
         <v>1382.222354598087</v>
@@ -6691,13 +6691,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6715,16 +6715,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324574</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>130.9054447954967</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6928,19 +6928,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6952,22 +6952,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>963.6521305054455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>963.6521305054455</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>674.2349604684848</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,7 +7165,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7189,13 +7189,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,31 +7350,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7426,13 +7426,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1301.989359467952</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1078.203944257458</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W43" t="n">
-        <v>472.0965898562135</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X43" t="n">
-        <v>244.1070389581962</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>244.1070389581962</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7663,37 +7663,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
   </sheetData>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>423.337678916511</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711655</v>
+        <v>324.1454125711639</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>124.3400780863227</v>
+        <v>124.3400780863225</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>121.0742203304185</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>259.2629056590281</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>5.621317882561129</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>5.621317882561641</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>82.39383318338574</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338567</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>64.21101613404099</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>79.43092547709136</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>2.963168004552131</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>29.89407122271365</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26040,10 +26040,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>143.8060970315901</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>691429.7925064224</v>
+        <v>691429.7925064223</v>
       </c>
     </row>
     <row r="7">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="F2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="G2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="H2" t="n">
         <v>684300.8545409904</v>
@@ -26337,25 +26337,25 @@
         <v>684300.85454099</v>
       </c>
       <c r="J2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="K2" t="n">
-        <v>684300.8545409897</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="L2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="M2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="N2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="O2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="P2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409901</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007442</v>
+        <v>7916.731656007443</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007434</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007443</v>
@@ -26441,7 +26441,7 @@
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007421</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007483</v>
@@ -26450,16 +26450,16 @@
         <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007479</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007481</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26493,16 +26493,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26524,46 +26524,46 @@
         <v>-102332.457362627</v>
       </c>
       <c r="C6" t="n">
-        <v>487635.4218519178</v>
+        <v>487635.421851918</v>
       </c>
       <c r="D6" t="n">
         <v>487635.4218519178</v>
       </c>
       <c r="E6" t="n">
-        <v>58262.16919964799</v>
+        <v>59139.30133339782</v>
       </c>
       <c r="F6" t="n">
-        <v>583422.2056765447</v>
+        <v>584299.3378102941</v>
       </c>
       <c r="G6" t="n">
-        <v>583422.2056765447</v>
+        <v>584299.3378102941</v>
       </c>
       <c r="H6" t="n">
-        <v>583422.2056765447</v>
+        <v>584299.3378102942</v>
       </c>
       <c r="I6" t="n">
-        <v>583422.2056765442</v>
+        <v>584299.3378102938</v>
       </c>
       <c r="J6" t="n">
-        <v>406998.9864839517</v>
+        <v>407876.1186177009</v>
       </c>
       <c r="K6" t="n">
-        <v>583422.205676544</v>
+        <v>584299.3378102939</v>
       </c>
       <c r="L6" t="n">
-        <v>583422.2056765448</v>
+        <v>584299.3378102939</v>
       </c>
       <c r="M6" t="n">
-        <v>448621.1904427074</v>
+        <v>449498.3225764568</v>
       </c>
       <c r="N6" t="n">
-        <v>583422.2056765446</v>
+        <v>584299.3378102939</v>
       </c>
       <c r="O6" t="n">
-        <v>583422.2056765446</v>
+        <v>584299.3378102939</v>
       </c>
       <c r="P6" t="n">
-        <v>583422.2056765447</v>
+        <v>584299.3378102939</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>73.15969220765749</v>
+        <v>73.15969220765714</v>
       </c>
     </row>
     <row r="5">
@@ -27621,13 +27621,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>189.357147325856</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>43.37041367496556</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>63.37316471551392</v>
+        <v>186.6211234951018</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-9.003997547551987e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-9.003997547551987e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>756.532252314524</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303323</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>166.2502570412294</v>
+        <v>166.2502570412292</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,22 +37074,22 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
         <v>59.82538970349766</v>
@@ -37150,13 +37150,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
